--- a/data/trans_camb/P25A_8_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_8_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,81</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,69</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,07</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,34</t>
+          <t>-3,35; 2,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,43</t>
+          <t>-2,3; 4,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 36,86</t>
+          <t>-2,67; 4,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,25; 46,6</t>
+          <t>-9,64; 0,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,65</t>
+          <t>-9,66; -0,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,52</t>
+          <t>-2,24; 10,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,83; 38,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 0,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 1,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 7,58</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>247,91%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>309,38%</t>
+          <t>122,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3866,27%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-31,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>672,69%</t>
+          <t>-52,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,9%</t>
+          <t>-53,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>940,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-41,06%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-33,29%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>68,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -806,32 +944,62 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 44,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,56; 27,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>275,27; 1340,9</t>
+          <t>-84,29; 12,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 101,29</t>
+          <t>-81,94; 4,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 92,66</t>
+          <t>-31,44; 270,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>453,38; 1881,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-75,54; 43,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-70,65; 65,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-23,91; 300,11</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,68</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,11</t>
+          <t>-2,27; 1,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,78</t>
+          <t>-1,54; 2,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 21,18</t>
+          <t>0,46; 6,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 26,92</t>
+          <t>-1,22; 4,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,81</t>
+          <t>0,05; 6,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,22</t>
+          <t>1,33; 7,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 21,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 2,41</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 4,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 5,99</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>555,95%</t>
+          <t>148,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>456,12%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>121,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>504,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>65,19%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>129,97%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 176,82</t>
+          <t>-64,21; 176,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 208,61</t>
+          <t>-48,44; 288,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>165,46; 1710,13</t>
+          <t>-1,62; 525,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 101,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 177,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>221,47; 850,86</t>
+          <t>-27,06; 178,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 78,51</t>
+          <t>-3,37; 265,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 134,93</t>
+          <t>19,6; 347,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>286,64; 823,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-24,51; 121,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 194,0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>36,22; 286,85</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,91</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,44</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 1,58</t>
+          <t>-5,86; 1,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,24</t>
+          <t>-4,56; 3,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 26,66</t>
+          <t>-3,03; 6,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 24,47</t>
+          <t>-3,28; 2,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,96</t>
+          <t>-2,2; 3,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,32</t>
+          <t>-0,05; 7,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 20,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 1,11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 2,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 5,39</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,42%</t>
+          <t>-29,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>303,04%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>292,49%</t>
+          <t>-10,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,75%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>297,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-19,99%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>62,68%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 72,22</t>
+          <t>-76,89; 80,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 181,16</t>
+          <t>-61,41; 164,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 949,12</t>
+          <t>-48,45; 239,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 93,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 148,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,47; 831,56</t>
+          <t>-57,86; 79,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 36,05</t>
+          <t>-35,34; 146,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 112,21</t>
+          <t>-10,21; 246,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100,59; 609,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-57,55; 36,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-30,54; 96,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 176,13</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,42</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,38</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,45</t>
+          <t>-0,91; 4,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,14; 20,42</t>
+          <t>0,43; 5,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,45; 28,28</t>
+          <t>-3,88; 1,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,1</t>
+          <t>2,08; 9,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 22,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 1,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 6,65</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>56,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>593,75%</t>
+          <t>140,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>508,18%</t>
+          <t>-38,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>137,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>550,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-6,47%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>135,8%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 91,19</t>
+          <t>-45,6; 303,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 142,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>311,82; 1106,25</t>
+          <t>2,39; 528,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 34,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 72,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>325,42; 772,8</t>
+          <t>-76,72; 36,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 30,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 76,88</t>
+          <t>32,94; 316,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>386,34; 770,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-49,41; 72,92</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>46,48; 296,35</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,31</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 2,57</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 4,1</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 1,04</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 2,85</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 6,68</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,79</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 2,28</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 5,05</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>43,59%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>102,34%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-8,54%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>107,83%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-4,29%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>32,59%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>105,81%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-36,68; 77,14</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-13,71; 139,14</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21,68; 231,16</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,28; 30,1</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; 82,13</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>54,06; 190,85</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-29,25; 27,39</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 78,84</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>61,95; 176,76</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
